--- a/seeding/mt-guide-seeding.xlsx
+++ b/seeding/mt-guide-seeding.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\fremi-explorer2\seeding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{059EF94F-CEF2-49BF-A639-E6928F606E3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E9F0A8-A59C-414C-8DB1-2F7A5F84D029}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FCCB3FD7-56FB-44A7-8A7B-BD1E5D2B4346}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="378">
   <si>
     <t>Name</t>
   </si>
@@ -54,12 +54,6 @@
   </si>
   <si>
     <t>https://hussanddalton.com/</t>
-  </si>
-  <si>
-    <t>Benjamin Rios</t>
-  </si>
-  <si>
-    <t>Bamboo</t>
   </si>
   <si>
     <t>Jerry Garcia Style</t>
@@ -1246,19 +1240,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1602,17 +1597,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D03ED82-B795-4A81-A11F-8BF9198ADF76}">
-  <dimension ref="A1:G465"/>
+  <dimension ref="A1:G463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B190" sqref="B190"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A68" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.7109375" customWidth="1"/>
     <col min="2" max="2" width="57.140625" customWidth="1"/>
-    <col min="3" max="3" width="32.85546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" style="7" customWidth="1"/>
     <col min="4" max="4" width="19.140625" customWidth="1"/>
     <col min="5" max="5" width="22.28515625" customWidth="1"/>
     <col min="6" max="6" width="15.42578125" customWidth="1"/>
@@ -1630,13 +1625,13 @@
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -1645,347 +1640,344 @@
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>19</v>
+      <c r="A4" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B5" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C5" s="10" t="s">
         <v>22</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="B9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>41</v>
+        <v>325</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>44</v>
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="B15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="B17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="B18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>21</v>
+        <v>66</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>27</v>
+        <v>70</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B25" t="s">
-        <v>75</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>27</v>
+        <v>73</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B26" t="s">
-        <v>77</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>27</v>
+        <v>75</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B28" t="s">
-        <v>80</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>27</v>
+        <v>81</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B30" t="s">
-        <v>86</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>27</v>
+        <v>84</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>27</v>
+        <v>86</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B32" t="s">
-        <v>90</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>27</v>
+        <v>88</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>18</v>
+        <v>90</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B34" t="s">
-        <v>94</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>18</v>
+        <v>92</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="B35" t="s">
-        <v>96</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>97</v>
+        <v>122</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1995,410 +1987,415 @@
       <c r="B36" t="s">
         <v>99</v>
       </c>
-      <c r="C36" s="8" t="s">
-        <v>102</v>
+      <c r="C36" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>96</v>
+      </c>
+      <c r="B37" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="B37" t="s">
-        <v>101</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B38" t="s">
-        <v>104</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>27</v>
+        <v>102</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>27</v>
+        <v>104</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>107</v>
-      </c>
-      <c r="B40" t="s">
-        <v>108</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>27</v>
+        <v>311</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B41" t="s">
-        <v>110</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>102</v>
+        <v>106</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B42" t="s">
-        <v>112</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>113</v>
+        <v>94</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>114</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>115</v>
+        <v>109</v>
+      </c>
+      <c r="B43" t="s">
+        <v>110</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>116</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>120</v>
+        <v>112</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>117</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>35</v>
+        <v>173</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>114</v>
+      </c>
+      <c r="C46" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="B46" t="s">
-        <v>119</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="B47" t="s">
-        <v>122</v>
+        <v>108</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>123</v>
-      </c>
-      <c r="B48" t="s">
-        <v>124</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>125</v>
+        <v>115</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B49" t="s">
-        <v>127</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>115</v>
+        <v>117</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B50" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>130</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>131</v>
+        <v>124</v>
+      </c>
+      <c r="B51" t="s">
+        <v>125</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>132</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
+      </c>
+      <c r="B52" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>135</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>21</v>
+        <v>128</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>136</v>
-      </c>
-      <c r="B54" s="2"/>
-      <c r="C54" s="8" t="s">
-        <v>137</v>
+        <v>130</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>139</v>
-      </c>
-      <c r="B55" t="s">
-        <v>138</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>27</v>
+        <v>133</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>2</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>27</v>
+        <v>137</v>
+      </c>
+      <c r="B56" t="s">
+        <v>136</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>140</v>
-      </c>
-      <c r="B57" t="s">
-        <v>141</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>27</v>
+        <v>2</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B58" t="s">
-        <v>143</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>27</v>
+        <v>139</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>144</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>27</v>
+        <v>140</v>
+      </c>
+      <c r="B59" t="s">
+        <v>141</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>147</v>
+        <v>143</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B61" t="s">
-        <v>150</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>151</v>
-      </c>
-      <c r="B62" t="s">
-        <v>152</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>153</v>
+        <v>144</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B63" t="s">
-        <v>155</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>147</v>
+        <v>150</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>156</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>27</v>
+        <v>152</v>
+      </c>
+      <c r="B64" t="s">
+        <v>153</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>147</v>
+        <v>156</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B66" t="s">
-        <v>160</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>153</v>
+        <v>158</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C67" s="8" t="s">
-        <v>27</v>
+      <c r="C67" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>162</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>163</v>
+        <v>160</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>41</v>
+        <v>163</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B70" t="s">
-        <v>168</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>147</v>
+        <v>166</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>147</v>
+        <v>167</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>169</v>
+      </c>
+      <c r="B72" t="s">
+        <v>170</v>
+      </c>
+      <c r="C72" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="B72" t="s">
-        <v>172</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>175</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>81</v>
+        <v>176</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>176</v>
-      </c>
-      <c r="B74" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C74" s="8" t="s">
-        <v>147</v>
+      <c r="C74" s="7" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>178</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>21</v>
+        <v>40</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>178</v>
+      </c>
+      <c r="B76" t="s">
         <v>179</v>
       </c>
-      <c r="C76" s="8" t="s">
-        <v>102</v>
+      <c r="C76" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2408,217 +2405,217 @@
       <c r="B77" t="s">
         <v>181</v>
       </c>
-      <c r="C77" s="8" t="s">
-        <v>27</v>
+      <c r="C77" s="7" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B78" t="s">
-        <v>183</v>
-      </c>
-      <c r="C78" s="8" t="s">
         <v>184</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>185</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C79" s="8" t="s">
-        <v>18</v>
+      <c r="C79" s="7" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>187</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C80" s="8" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="B80" t="s">
+        <v>193</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B81" t="s">
-        <v>190</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>166</v>
+        <v>188</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B82" t="s">
-        <v>193</v>
-      </c>
-      <c r="C82" s="8" t="s">
-        <v>163</v>
+        <v>191</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>194</v>
       </c>
-      <c r="B83" t="s">
-        <v>195</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>41</v>
+      <c r="C83" s="7" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>196</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>147</v>
+        <v>195</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>196</v>
+      </c>
+      <c r="C85" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="C85" s="8" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>198</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B87" t="s">
-        <v>201</v>
-      </c>
-      <c r="C87" s="8" t="s">
-        <v>166</v>
+        <v>199</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>202</v>
-      </c>
-      <c r="C88" s="8" t="s">
-        <v>163</v>
+        <v>201</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
+        <v>202</v>
+      </c>
+      <c r="B89" t="s">
         <v>203</v>
       </c>
-      <c r="C89" s="8" t="s">
-        <v>27</v>
+      <c r="C89" s="7" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>204</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="C90" s="8" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>206</v>
       </c>
-      <c r="C91" s="8" t="s">
-        <v>207</v>
+      <c r="C91" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>208</v>
       </c>
-      <c r="C92" s="8" t="s">
-        <v>27</v>
+      <c r="C92" s="7" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>209</v>
-      </c>
-      <c r="C93" s="8" t="s">
-        <v>27</v>
+        <v>207</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>210</v>
-      </c>
-      <c r="C94" s="8" t="s">
-        <v>102</v>
+        <v>209</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>211</v>
-      </c>
-      <c r="C95" s="8" t="s">
-        <v>102</v>
+        <v>210</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>212</v>
       </c>
-      <c r="C96" s="8" t="s">
-        <v>102</v>
+      <c r="B96" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>214</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C97" s="8" t="s">
-        <v>27</v>
+      <c r="B97" t="s">
+        <v>215</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C98" s="8" t="s">
-        <v>147</v>
+        <v>213</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B99" t="s">
-        <v>217</v>
-      </c>
-      <c r="C99" s="8" t="s">
-        <v>81</v>
+        <v>218</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2628,74 +2625,74 @@
       <c r="B100" t="s">
         <v>220</v>
       </c>
-      <c r="C100" s="8" t="s">
-        <v>27</v>
+      <c r="C100" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
+        <v>222</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B101" t="s">
-        <v>222</v>
-      </c>
-      <c r="C101" s="8" t="s">
-        <v>27</v>
+      <c r="C101" s="7" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C102" s="8" t="s">
-        <v>97</v>
+        <v>226</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B103" t="s">
-        <v>226</v>
-      </c>
-      <c r="C103" s="8" t="s">
-        <v>97</v>
+        <v>224</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>227</v>
-      </c>
-      <c r="B104" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="C104" s="8" t="s">
+      <c r="B104" t="s">
         <v>229</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B105" t="s">
-        <v>231</v>
-      </c>
-      <c r="C105" s="8" t="s">
-        <v>41</v>
+        <v>233</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B106" t="s">
-        <v>233</v>
-      </c>
-      <c r="C106" s="8" t="s">
-        <v>102</v>
+        <v>231</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2705,545 +2702,543 @@
       <c r="B107" t="s">
         <v>235</v>
       </c>
-      <c r="C107" s="8" t="s">
-        <v>38</v>
+      <c r="C107" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
+        <v>238</v>
+      </c>
+      <c r="B108" t="s">
         <v>236</v>
       </c>
-      <c r="B108" t="s">
+      <c r="C108" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="C108" s="8" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
+        <v>239</v>
+      </c>
+      <c r="C109" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="B109" t="s">
-        <v>238</v>
-      </c>
-      <c r="C109" s="8" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>241</v>
-      </c>
-      <c r="C110" s="8" t="s">
-        <v>242</v>
+        <v>134</v>
+      </c>
+      <c r="B110" s="2"/>
+      <c r="C110" s="7" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B111" t="s">
-        <v>244</v>
-      </c>
-      <c r="C111" s="8" t="s">
-        <v>115</v>
+        <v>242</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>245</v>
-      </c>
-      <c r="C112" s="8" t="s">
-        <v>41</v>
+        <v>243</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>246</v>
-      </c>
-      <c r="B113" t="s">
-        <v>247</v>
-      </c>
-      <c r="C113" s="8" t="s">
-        <v>147</v>
+        <v>174</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>248</v>
-      </c>
-      <c r="C114" s="8" t="s">
-        <v>27</v>
+        <v>244</v>
+      </c>
+      <c r="B114" t="s">
+        <v>245</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>249</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C115" s="8" t="s">
-        <v>47</v>
+        <v>246</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>251</v>
-      </c>
-      <c r="B116" t="s">
-        <v>252</v>
-      </c>
-      <c r="C116" s="8" t="s">
-        <v>27</v>
+        <v>247</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>253</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C117" s="8" t="s">
-        <v>27</v>
+        <v>249</v>
+      </c>
+      <c r="B117" t="s">
+        <v>250</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B118" t="s">
-        <v>256</v>
-      </c>
-      <c r="C118" s="8" t="s">
-        <v>47</v>
+        <v>264</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B119" t="s">
-        <v>259</v>
-      </c>
-      <c r="C119" s="8" t="s">
-        <v>47</v>
+        <v>254</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>257</v>
-      </c>
-      <c r="B120" t="s">
-        <v>260</v>
-      </c>
-      <c r="C120" s="8" t="s">
-        <v>47</v>
+        <v>251</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B121" t="s">
-        <v>262</v>
-      </c>
-      <c r="C121" s="8" t="s">
-        <v>47</v>
+        <v>257</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="B122" t="s">
-        <v>264</v>
-      </c>
-      <c r="C122" s="8" t="s">
-        <v>21</v>
+        <v>258</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B123" t="s">
-        <v>266</v>
-      </c>
-      <c r="C123" s="8" t="s">
-        <v>269</v>
+        <v>260</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B124" t="s">
-        <v>268</v>
-      </c>
-      <c r="C124" s="8" t="s">
-        <v>41</v>
+        <v>262</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B125" t="s">
-        <v>271</v>
-      </c>
-      <c r="C125" s="8" t="s">
-        <v>27</v>
+        <v>266</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>272</v>
-      </c>
-      <c r="C126" s="8" t="s">
-        <v>52</v>
+        <v>268</v>
+      </c>
+      <c r="B126" t="s">
+        <v>269</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>273</v>
-      </c>
-      <c r="B127" t="s">
-        <v>274</v>
-      </c>
-      <c r="C127" s="8" t="s">
-        <v>27</v>
+        <v>270</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>275</v>
-      </c>
-      <c r="C128" s="8" t="s">
-        <v>120</v>
+        <v>271</v>
+      </c>
+      <c r="B128" t="s">
+        <v>272</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>3</v>
-      </c>
-      <c r="B129" t="s">
-        <v>276</v>
-      </c>
-      <c r="C129" s="8" t="s">
-        <v>27</v>
+        <v>273</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>277</v>
+        <v>3</v>
       </c>
       <c r="B130" t="s">
-        <v>278</v>
-      </c>
-      <c r="C130" s="8" t="s">
-        <v>38</v>
+        <v>274</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="C131" s="8" t="s">
-        <v>120</v>
+        <v>277</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>281</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="C132" s="8" t="s">
-        <v>27</v>
+        <v>275</v>
+      </c>
+      <c r="B132" t="s">
+        <v>276</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C133" s="8" t="s">
-        <v>102</v>
+        <v>303</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>285</v>
-      </c>
-      <c r="B134" t="s">
-        <v>286</v>
-      </c>
-      <c r="C134" s="8" t="s">
-        <v>38</v>
+        <v>279</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>287</v>
-      </c>
-      <c r="B135" t="s">
-        <v>288</v>
-      </c>
-      <c r="C135" s="8" t="s">
-        <v>27</v>
+        <v>281</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>289</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>290</v>
+        <v>283</v>
+      </c>
+      <c r="B136" t="s">
+        <v>284</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>120</v>
+        <v>36</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B137" t="s">
-        <v>292</v>
-      </c>
-      <c r="C137" s="8" t="s">
-        <v>293</v>
+        <v>286</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>295</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="C138" s="8" t="s">
-        <v>147</v>
+        <v>289</v>
+      </c>
+      <c r="B138" t="s">
+        <v>290</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>296</v>
-      </c>
-      <c r="B139" t="s">
-        <v>297</v>
-      </c>
-      <c r="C139" s="8" t="s">
-        <v>298</v>
+        <v>293</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>299</v>
-      </c>
-      <c r="B140" t="s">
-        <v>300</v>
-      </c>
-      <c r="C140" s="8" t="s">
-        <v>301</v>
+        <v>287</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="B141" t="s">
-        <v>303</v>
-      </c>
-      <c r="C141" s="8" t="s">
-        <v>207</v>
+        <v>295</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>304</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C142" s="8" t="s">
-        <v>27</v>
+        <v>297</v>
+      </c>
+      <c r="B142" t="s">
+        <v>298</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B143" t="s">
-        <v>307</v>
-      </c>
-      <c r="C143" s="8" t="s">
-        <v>27</v>
+        <v>301</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>308</v>
-      </c>
-      <c r="B144" s="2"/>
-      <c r="C144" s="8" t="s">
-        <v>27</v>
+        <v>304</v>
+      </c>
+      <c r="B144" t="s">
+        <v>305</v>
+      </c>
+      <c r="C144" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>309</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="C145" s="8" t="s">
-        <v>27</v>
+        <v>306</v>
+      </c>
+      <c r="B145" s="2"/>
+      <c r="C145" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>311</v>
-      </c>
-      <c r="C146" s="8" t="s">
-        <v>184</v>
+        <v>307</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>313</v>
-      </c>
-      <c r="B147" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="C147" s="8" t="s">
-        <v>81</v>
+      <c r="C147" s="7" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
+        <v>313</v>
+      </c>
+      <c r="C148" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="C148" s="8" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>315</v>
-      </c>
-      <c r="C149" s="8" t="s">
-        <v>316</v>
+        <v>309</v>
+      </c>
+      <c r="C149" s="7" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>317</v>
-      </c>
-      <c r="C150" s="8" t="s">
-        <v>134</v>
+        <v>315</v>
+      </c>
+      <c r="C150" s="7" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>318</v>
-      </c>
-      <c r="C151" s="8" t="s">
-        <v>102</v>
+        <v>316</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B152" s="2"/>
-      <c r="C152" s="8" t="s">
-        <v>97</v>
+      <c r="C152" s="7" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B153" t="s">
-        <v>321</v>
-      </c>
-      <c r="C153" s="8" t="s">
-        <v>293</v>
+        <v>319</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="C154" s="8" t="s">
-        <v>52</v>
+        <v>321</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
+        <v>322</v>
+      </c>
+      <c r="B155" t="s">
+        <v>323</v>
+      </c>
+      <c r="C155" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="B155" t="s">
-        <v>325</v>
-      </c>
-      <c r="C155" s="8" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>327</v>
-      </c>
-      <c r="C156" s="8" t="s">
-        <v>27</v>
+        <v>326</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>328</v>
-      </c>
-      <c r="C157" s="8" t="s">
-        <v>120</v>
+        <v>327</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>329</v>
-      </c>
-      <c r="C158" s="8" t="s">
-        <v>52</v>
+        <v>328</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>330</v>
-      </c>
-      <c r="C159" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="B159" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B160" t="s">
-        <v>332</v>
-      </c>
-      <c r="C160" s="8" t="s">
-        <v>293</v>
+        <v>330</v>
+      </c>
+      <c r="C160" s="7" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3253,204 +3248,204 @@
       <c r="B161" t="s">
         <v>335</v>
       </c>
+      <c r="C161" s="7" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="162" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>336</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B162" s="2" t="s">
         <v>337</v>
-      </c>
-      <c r="C162" s="8" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>338</v>
       </c>
-      <c r="B163" s="2" t="s">
+      <c r="B163" t="s">
         <v>339</v>
+      </c>
+      <c r="C163" s="7" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>340</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B164" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="C164" s="8" t="s">
-        <v>153</v>
+      <c r="C164" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>342</v>
       </c>
-      <c r="B165" s="2" t="s">
+      <c r="B165" t="s">
         <v>343</v>
       </c>
-      <c r="C165" s="8" t="s">
-        <v>47</v>
+      <c r="C165" s="7" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>344</v>
-      </c>
-      <c r="B166" t="s">
-        <v>345</v>
-      </c>
-      <c r="C166" s="8" t="s">
-        <v>147</v>
+        <v>154</v>
+      </c>
+      <c r="C166" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="B167" t="s">
-        <v>347</v>
+        <v>358</v>
+      </c>
+      <c r="C167" s="7" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B168" t="s">
-        <v>349</v>
-      </c>
-      <c r="C168" s="8" t="s">
-        <v>27</v>
+        <v>347</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="B169" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>4</v>
-      </c>
-      <c r="C170" s="8" t="s">
-        <v>27</v>
+        <v>348</v>
+      </c>
+      <c r="B170" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>352</v>
-      </c>
-      <c r="B171" s="2"/>
-      <c r="C171" s="9" t="s">
-        <v>269</v>
+        <v>4</v>
+      </c>
+      <c r="C171" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>353</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="B172" s="2"/>
       <c r="C172" s="8" t="s">
-        <v>115</v>
+        <v>267</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>354</v>
-      </c>
-      <c r="C173" s="8" t="s">
-        <v>207</v>
+        <v>351</v>
+      </c>
+      <c r="C173" s="7" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>355</v>
-      </c>
-      <c r="B174" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="C174" s="8" t="s">
-        <v>356</v>
+        <v>352</v>
+      </c>
+      <c r="C174" s="7" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>357</v>
-      </c>
-      <c r="B175" t="s">
-        <v>358</v>
-      </c>
-      <c r="C175" s="8" t="s">
-        <v>81</v>
+        <v>353</v>
+      </c>
+      <c r="B175" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="C175" s="7" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B176" t="s">
-        <v>360</v>
-      </c>
-      <c r="C176" s="8" t="s">
-        <v>199</v>
+        <v>356</v>
+      </c>
+      <c r="C176" s="7" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>361</v>
       </c>
-      <c r="B177" t="s">
-        <v>362</v>
-      </c>
-      <c r="C177" s="8" t="s">
-        <v>153</v>
+      <c r="C177" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
+        <v>362</v>
+      </c>
+      <c r="B178" t="s">
         <v>363</v>
       </c>
-      <c r="C178" s="8" t="s">
-        <v>27</v>
+      <c r="C178" s="7" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>364</v>
-      </c>
-      <c r="B179" t="s">
         <v>365</v>
       </c>
-      <c r="C179" s="8" t="s">
-        <v>366</v>
+      <c r="C179" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>367</v>
-      </c>
-      <c r="C180" s="8" t="s">
-        <v>21</v>
+        <v>366</v>
+      </c>
+      <c r="C180" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>368</v>
-      </c>
-      <c r="C181" s="8" t="s">
-        <v>27</v>
+        <v>367</v>
+      </c>
+      <c r="C181" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>369</v>
-      </c>
-      <c r="C182" s="8" t="s">
-        <v>27</v>
+        <v>359</v>
+      </c>
+      <c r="B182" t="s">
+        <v>360</v>
+      </c>
+      <c r="C182" s="7" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3458,146 +3453,141 @@
         <v>5</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="C183" s="8" t="s">
-        <v>27</v>
+        <v>368</v>
+      </c>
+      <c r="C183" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>371</v>
-      </c>
-      <c r="C184" s="8" t="s">
-        <v>21</v>
+        <v>369</v>
+      </c>
+      <c r="C184" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B185" s="2"/>
-      <c r="C185" s="8" t="s">
-        <v>21</v>
+      <c r="C185" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>373</v>
-      </c>
-      <c r="C186" s="8" t="s">
-        <v>27</v>
+        <v>371</v>
+      </c>
+      <c r="C186" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>374</v>
-      </c>
-      <c r="C187" s="8" t="s">
-        <v>52</v>
+        <v>372</v>
+      </c>
+      <c r="C187" s="7" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="C188" s="8" t="s">
-        <v>115</v>
+        <v>373</v>
+      </c>
+      <c r="C188" s="7" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B189" t="s">
-        <v>378</v>
-      </c>
-      <c r="C189" s="8" t="s">
-        <v>147</v>
+        <v>376</v>
+      </c>
+      <c r="C189" s="7" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B190" s="2"/>
-      <c r="C190" s="8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="207" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B207" s="2"/>
-    </row>
-    <row r="209" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B209" s="2"/>
-    </row>
-    <row r="215" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C215" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D215" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="224" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B224" s="2"/>
-    </row>
-    <row r="227" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C227" s="8" t="s">
+      <c r="C190" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C191" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C192" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="193" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B193" s="2"/>
+      <c r="C193" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="245" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C245" s="8" t="s">
+    <row r="210" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B210" s="2"/>
+    </row>
+    <row r="212" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B212" s="2"/>
+    </row>
+    <row r="213" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D213" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="246" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C246" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="250" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B250" s="2"/>
-    </row>
-    <row r="254" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B254" s="2"/>
-    </row>
-    <row r="257" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B257" s="2"/>
-    </row>
-    <row r="277" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B277" s="2"/>
-    </row>
-    <row r="298" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B298" s="2"/>
-    </row>
-    <row r="300" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B300" s="2"/>
-    </row>
-    <row r="305" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B305" s="2"/>
-    </row>
-    <row r="321" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B321" s="2"/>
-    </row>
-    <row r="325" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B325" s="2"/>
-    </row>
-    <row r="361" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B361" s="2"/>
-    </row>
-    <row r="362" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B362" s="2"/>
-      <c r="C362" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="391" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B391" s="2"/>
+    <row r="226" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B226" s="2"/>
+    </row>
+    <row r="249" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B249" s="2"/>
+    </row>
+    <row r="253" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B253" s="2"/>
+    </row>
+    <row r="256" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B256" s="2"/>
+    </row>
+    <row r="276" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B276" s="2"/>
+    </row>
+    <row r="297" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B297" s="2"/>
+    </row>
+    <row r="299" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B299" s="2"/>
+    </row>
+    <row r="304" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B304" s="2"/>
+    </row>
+    <row r="320" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B320" s="2"/>
+    </row>
+    <row r="324" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B324" s="2"/>
+    </row>
+    <row r="360" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B360" s="2"/>
+    </row>
+    <row r="389" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B389" s="2"/>
+    </row>
+    <row r="390" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B390" s="2"/>
     </row>
     <row r="392" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B392" s="2"/>
@@ -3605,32 +3595,29 @@
     <row r="394" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B394" s="2"/>
     </row>
-    <row r="396" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B396" s="2"/>
-    </row>
-    <row r="397" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B397" s="2"/>
-    </row>
-    <row r="422" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B422" s="2"/>
-    </row>
-    <row r="464" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B464" s="2"/>
-    </row>
-    <row r="465" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B465" s="2"/>
+    <row r="395" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B395" s="2"/>
+    </row>
+    <row r="420" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B420" s="2"/>
+    </row>
+    <row r="462" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B462" s="2"/>
+    </row>
+    <row r="463" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B463" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G470">
-    <sortCondition ref="A2"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C465">
+    <sortCondition ref="A68"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{F2589F07-D3CE-4C80-9FE2-C58F8FA97E15}"/>
-    <hyperlink ref="B4" r:id="rId2" xr:uid="{E36C0E57-BC0B-45F5-B68B-D3965A46F474}"/>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{F2589F07-D3CE-4C80-9FE2-C58F8FA97E15}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{E36C0E57-BC0B-45F5-B68B-D3965A46F474}"/>
     <hyperlink ref="B5" r:id="rId3" xr:uid="{9C935871-054E-4832-8F0C-3DE5213D71D9}"/>
     <hyperlink ref="B6" r:id="rId4" xr:uid="{8DAC8D16-005F-4CBB-85AA-F5D261C74036}"/>
     <hyperlink ref="B10" r:id="rId5" xr:uid="{14735EF2-8275-4F19-9170-49A4812A979D}"/>
-    <hyperlink ref="B12" r:id="rId6" xr:uid="{3FF389E5-C30A-4278-A842-E446FCFE8B17}"/>
+    <hyperlink ref="B75" r:id="rId6" xr:uid="{3FF389E5-C30A-4278-A842-E446FCFE8B17}"/>
     <hyperlink ref="A13" r:id="rId7" display="http://www.anatomyofsound.com/" xr:uid="{2265B760-EF62-45E8-9F03-E0744F073EC8}"/>
     <hyperlink ref="B13" r:id="rId8" xr:uid="{3E50C345-10AF-4DDD-AE0B-3B952C00A180}"/>
     <hyperlink ref="B22" r:id="rId9" xr:uid="{1D3FCD06-D9C7-4D8F-AA5A-2D97DC8830B9}"/>
@@ -3639,27 +3626,27 @@
     <hyperlink ref="B29" r:id="rId12" xr:uid="{55C5F09F-7888-45F7-9AF4-76A52E430B28}"/>
     <hyperlink ref="B31" r:id="rId13" xr:uid="{F1963AB9-9419-4645-8A4B-EF378BB69CF9}"/>
     <hyperlink ref="B33" r:id="rId14" xr:uid="{E3E86B76-E991-43FF-9B71-56A3268B10B7}"/>
-    <hyperlink ref="B59" r:id="rId15" xr:uid="{4968B309-EE63-46E8-9413-F6EBBC601767}"/>
-    <hyperlink ref="B60" r:id="rId16" xr:uid="{6EF60F8D-E118-406C-9148-008E78B73BDF}"/>
+    <hyperlink ref="B60" r:id="rId15" xr:uid="{4968B309-EE63-46E8-9413-F6EBBC601767}"/>
+    <hyperlink ref="B62" r:id="rId16" xr:uid="{6EF60F8D-E118-406C-9148-008E78B73BDF}"/>
     <hyperlink ref="B65" r:id="rId17" xr:uid="{7C9C3DCD-B514-4000-A1CD-7F681C9F3069}"/>
     <hyperlink ref="B67" r:id="rId18" xr:uid="{2DB40047-8453-4028-B0E9-329507A05E5A}"/>
     <hyperlink ref="B69" r:id="rId19" xr:uid="{2BEC6253-D17F-4D40-8DF4-05C6913ACA20}"/>
     <hyperlink ref="B71" r:id="rId20" xr:uid="{113AAF79-0F2C-4179-8400-551896B81A74}"/>
-    <hyperlink ref="B73" r:id="rId21" xr:uid="{28701B5B-F0EC-4721-9998-61631A5EA217}"/>
-    <hyperlink ref="B74" r:id="rId22" xr:uid="{CCE7A23F-8BEE-4C59-8BCF-973E60B90249}"/>
-    <hyperlink ref="B97" r:id="rId23" xr:uid="{CCB956E1-A69A-4B06-BA29-39AFBDF736D3}"/>
+    <hyperlink ref="B45" r:id="rId21" xr:uid="{28701B5B-F0EC-4721-9998-61631A5EA217}"/>
+    <hyperlink ref="B113" r:id="rId22" xr:uid="{CCE7A23F-8BEE-4C59-8BCF-973E60B90249}"/>
+    <hyperlink ref="B96" r:id="rId23" xr:uid="{CCB956E1-A69A-4B06-BA29-39AFBDF736D3}"/>
     <hyperlink ref="B98" r:id="rId24" xr:uid="{DEEF0D53-D2FE-4928-8809-486E7CC5853E}"/>
-    <hyperlink ref="B102" r:id="rId25" xr:uid="{CADB572B-465A-40D1-B1AE-1A1983CA349F}"/>
-    <hyperlink ref="B104" r:id="rId26" xr:uid="{E268D60B-5F2F-4997-807D-11FCF1C987C6}"/>
-    <hyperlink ref="B115" r:id="rId27" xr:uid="{300EA51A-E91D-44A2-A5F0-1CB160A06479}"/>
-    <hyperlink ref="B117" r:id="rId28" xr:uid="{77C176C0-ED4C-4B27-9B02-AADAB9458EEF}"/>
+    <hyperlink ref="B101" r:id="rId25" xr:uid="{CADB572B-465A-40D1-B1AE-1A1983CA349F}"/>
+    <hyperlink ref="B102" r:id="rId26" xr:uid="{E268D60B-5F2F-4997-807D-11FCF1C987C6}"/>
+    <hyperlink ref="B116" r:id="rId27" xr:uid="{300EA51A-E91D-44A2-A5F0-1CB160A06479}"/>
+    <hyperlink ref="B120" r:id="rId28" xr:uid="{77C176C0-ED4C-4B27-9B02-AADAB9458EEF}"/>
     <hyperlink ref="B131" r:id="rId29" xr:uid="{37F629EC-141A-450C-B6B4-0955888F7CC8}"/>
-    <hyperlink ref="B136" r:id="rId30" xr:uid="{EF133700-ED10-4D09-BA18-EC1CEB21DD7C}"/>
-    <hyperlink ref="B138" r:id="rId31" xr:uid="{B050C1AB-53A2-4697-9028-FE24AB186534}"/>
-    <hyperlink ref="B142" r:id="rId32" xr:uid="{9BE42C33-6304-4781-8D75-B9ABDF284128}"/>
-    <hyperlink ref="B147" r:id="rId33" xr:uid="{E63CF6C7-C365-4F81-A67A-D02BFC0B0343}"/>
-    <hyperlink ref="B163" r:id="rId34" xr:uid="{CFEC3ABF-C80E-4645-A75E-CBFDD69AEECC}"/>
-    <hyperlink ref="B165" r:id="rId35" xr:uid="{3D6A50AD-ED82-4B0D-ACBA-6DF8ABCFA43B}"/>
+    <hyperlink ref="B140" r:id="rId30" xr:uid="{EF133700-ED10-4D09-BA18-EC1CEB21DD7C}"/>
+    <hyperlink ref="B139" r:id="rId31" xr:uid="{B050C1AB-53A2-4697-9028-FE24AB186534}"/>
+    <hyperlink ref="B133" r:id="rId32" xr:uid="{9BE42C33-6304-4781-8D75-B9ABDF284128}"/>
+    <hyperlink ref="B40" r:id="rId33" xr:uid="{E63CF6C7-C365-4F81-A67A-D02BFC0B0343}"/>
+    <hyperlink ref="B162" r:id="rId34" xr:uid="{CFEC3ABF-C80E-4645-A75E-CBFDD69AEECC}"/>
+    <hyperlink ref="B164" r:id="rId35" xr:uid="{3D6A50AD-ED82-4B0D-ACBA-6DF8ABCFA43B}"/>
     <hyperlink ref="B188" r:id="rId36" xr:uid="{96D6E947-6FBE-433C-A9B0-34948C666BF3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
